--- a/app/Licenciatura_em_Engenharia_e_Gestao_Industrial_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Engenharia_e_Gestao_Industrial_Pos_Laboral.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Maria Delfina Marrime</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Delfina Ernesto Fernando</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Cartao de Eleitor</t>
   </si>
   <si>
@@ -303,9 +297,6 @@
     <t>Sara Lacitela</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101556451J</t>
   </si>
   <si>
@@ -330,9 +321,6 @@
     <t xml:space="preserve"> Elisa  Fabiao  Mioche</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>+258828672022</t>
   </si>
   <si>
@@ -354,9 +342,6 @@
     <t>Rosalina Valente Sitoe</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110300613767F</t>
   </si>
   <si>
@@ -738,9 +723,6 @@
     <t>AmÉlia Braga Manuel</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>070102114797P</t>
   </si>
   <si>
@@ -786,9 +768,6 @@
     <t>Lurdes Elias Mabjaia</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>110504048643P</t>
   </si>
   <si>
@@ -1068,9 +1047,6 @@
     <t>Zaina Ramadane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>040100128334F</t>
   </si>
   <si>
@@ -1093,9 +1069,6 @@
   </si>
   <si>
     <t>Rebeca Amone Matusse</t>
-  </si>
-  <si>
-    <t>Distrito de Manhiça</t>
   </si>
   <si>
     <t>100300409837Q</t>
@@ -2382,7 +2355,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2398,7 +2371,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2414,7 +2387,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2430,7 +2403,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2446,7 +2419,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2461,9 +2434,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2471,7 +2442,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2482,7 +2453,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2491,7 +2462,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2503,7 +2474,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2511,7 +2482,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2607,7 +2578,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2650,7 +2621,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2977,7 +2948,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2993,7 +2964,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3009,7 +2980,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3025,7 +2996,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3041,7 +3012,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3056,9 +3027,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3066,7 +3035,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3077,7 +3046,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3086,7 +3055,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3098,7 +3067,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3106,7 +3075,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3202,7 +3171,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3245,7 +3214,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3572,7 +3541,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3588,7 +3557,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3604,7 +3573,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3620,7 +3589,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3636,7 +3605,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3651,9 +3620,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3661,7 +3628,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3672,7 +3639,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3681,7 +3648,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3693,7 +3660,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3701,7 +3668,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3797,7 +3764,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3840,7 +3807,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4167,7 +4134,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4183,7 +4150,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4199,7 +4166,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4215,7 +4182,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4231,7 +4198,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4246,9 +4213,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4256,7 +4221,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4267,7 +4232,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4276,7 +4241,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4288,7 +4253,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4296,7 +4261,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4392,7 +4357,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4435,7 +4400,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4762,7 +4727,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4778,7 +4743,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4794,7 +4759,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4810,7 +4775,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4826,7 +4791,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4841,9 +4806,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4851,7 +4814,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4862,7 +4825,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4871,7 +4834,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4883,7 +4846,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4891,7 +4854,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4987,7 +4950,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5030,7 +4993,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5357,7 +5320,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5373,7 +5336,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5389,7 +5352,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5405,7 +5368,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5421,7 +5384,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5436,9 +5399,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5446,7 +5407,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5457,7 +5418,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5466,7 +5427,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5478,7 +5439,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5486,7 +5447,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5582,7 +5543,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5625,7 +5586,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5952,7 +5913,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5968,7 +5929,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5984,7 +5945,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6000,7 +5961,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6016,7 +5977,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6031,9 +5992,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6041,7 +6000,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6052,7 +6011,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6061,7 +6020,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6073,7 +6032,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6177,7 +6136,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6220,7 +6179,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6547,7 +6506,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6563,7 +6522,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6579,7 +6538,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6595,7 +6554,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6611,7 +6570,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6626,9 +6585,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6636,7 +6593,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6647,7 +6604,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6656,7 +6613,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6668,7 +6625,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6676,7 +6633,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6772,7 +6729,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6815,7 +6772,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7142,7 +7099,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7158,7 +7115,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7174,7 +7131,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7190,7 +7147,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7206,7 +7163,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7221,9 +7178,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7231,7 +7186,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7242,7 +7197,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7251,7 +7206,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7263,7 +7218,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7271,7 +7226,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7367,7 +7322,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7410,7 +7365,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7737,7 +7692,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7753,7 +7708,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7769,7 +7724,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7785,7 +7740,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7801,7 +7756,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7816,9 +7771,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7826,7 +7779,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7837,7 +7790,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7846,7 +7799,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7858,7 +7811,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7866,7 +7819,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7962,7 +7915,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8005,7 +7958,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8411,9 +8364,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8421,7 +8372,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8432,7 +8383,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8441,7 +8392,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8453,7 +8404,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8461,7 +8412,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8557,7 +8508,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8600,7 +8551,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8927,7 +8878,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8943,7 +8894,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8959,7 +8910,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8975,7 +8926,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8991,7 +8942,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9006,9 +8957,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9016,7 +8965,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9027,7 +8976,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9036,7 +8985,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9048,7 +8997,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9056,7 +9005,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9152,7 +9101,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9195,7 +9144,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9522,7 +9471,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9538,7 +9487,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9554,7 +9503,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9570,7 +9519,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9586,7 +9535,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9601,9 +9550,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9611,7 +9558,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9622,7 +9569,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9631,7 +9578,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9643,7 +9590,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9651,7 +9598,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9747,7 +9694,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9790,7 +9737,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10117,7 +10064,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10133,7 +10080,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10149,7 +10096,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10165,7 +10112,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10181,7 +10128,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10196,9 +10143,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10206,7 +10151,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10217,7 +10162,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10226,7 +10171,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10238,7 +10183,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10246,7 +10191,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10342,7 +10287,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10385,7 +10330,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10712,7 +10657,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10728,7 +10673,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10744,7 +10689,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10760,7 +10705,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10776,7 +10721,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10791,9 +10736,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10801,7 +10744,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10812,7 +10755,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10821,7 +10764,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10833,7 +10776,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10841,7 +10784,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10937,7 +10880,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10980,7 +10923,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11307,7 +11250,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11323,7 +11266,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11339,7 +11282,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11355,7 +11298,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11371,7 +11314,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11386,9 +11329,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11396,7 +11337,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11407,7 +11348,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11416,7 +11357,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11428,7 +11369,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11436,7 +11377,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11532,7 +11473,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11575,7 +11516,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11902,7 +11843,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11918,7 +11859,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11934,7 +11875,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11950,7 +11891,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11966,7 +11907,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11981,9 +11922,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11991,7 +11930,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12002,7 +11941,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12011,7 +11950,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12023,7 +11962,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12031,7 +11970,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12127,7 +12066,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12170,7 +12109,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12497,7 +12436,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12513,7 +12452,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12529,7 +12468,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12545,7 +12484,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12561,7 +12500,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12576,9 +12515,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>242</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12586,7 +12523,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12597,7 +12534,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12606,7 +12543,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12618,7 +12555,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12626,7 +12563,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12722,7 +12659,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12765,7 +12702,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13092,7 +13029,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13108,7 +13045,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13124,7 +13061,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13140,7 +13077,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13156,7 +13093,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13171,9 +13108,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13181,7 +13116,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13192,7 +13127,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13201,7 +13136,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13213,7 +13148,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13221,7 +13156,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13317,7 +13252,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13360,7 +13295,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13687,7 +13622,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13703,7 +13638,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13719,7 +13654,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13735,7 +13670,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13751,7 +13686,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13766,9 +13701,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13776,7 +13709,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13787,7 +13720,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13796,7 +13729,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13808,7 +13741,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13816,7 +13749,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13912,7 +13845,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13955,7 +13888,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14282,7 +14215,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14298,7 +14231,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14314,7 +14247,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14330,7 +14263,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14346,7 +14279,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14361,9 +14294,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14371,7 +14302,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14382,7 +14313,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14391,7 +14322,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14403,7 +14334,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14411,7 +14342,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14507,7 +14438,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14550,7 +14481,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14877,7 +14808,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14893,7 +14824,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14909,7 +14840,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14925,7 +14856,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14941,7 +14872,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14956,9 +14887,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14966,7 +14895,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14977,7 +14906,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14986,7 +14915,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14998,7 +14927,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15006,7 +14935,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15102,7 +15031,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15145,7 +15074,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15472,7 +15401,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15488,7 +15417,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15504,7 +15433,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15520,7 +15449,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15536,7 +15465,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15551,9 +15480,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15561,7 +15488,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15572,7 +15499,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15581,7 +15508,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15593,7 +15520,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15601,7 +15528,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15697,7 +15624,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15740,7 +15667,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16067,7 +15994,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16083,7 +16010,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16099,7 +16026,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16115,7 +16042,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16131,7 +16058,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16146,9 +16073,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>226</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16156,7 +16081,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16167,7 +16092,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16176,7 +16101,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16188,7 +16113,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16196,7 +16121,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16292,7 +16217,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16335,7 +16260,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16662,7 +16587,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16678,7 +16603,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16694,7 +16619,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16710,7 +16635,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16726,7 +16651,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16741,9 +16666,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16751,7 +16674,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16762,7 +16685,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16771,7 +16694,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16783,7 +16706,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16791,7 +16714,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16887,7 +16810,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16930,7 +16853,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17257,7 +17180,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17273,7 +17196,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17289,7 +17212,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17305,7 +17228,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17321,7 +17244,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17336,9 +17259,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17346,7 +17267,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17357,7 +17278,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17366,7 +17287,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17378,7 +17299,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17386,7 +17307,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17482,7 +17403,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17525,7 +17446,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17852,7 +17773,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17868,7 +17789,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17884,7 +17805,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17900,7 +17821,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17916,7 +17837,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17931,9 +17852,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17941,7 +17860,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17952,7 +17871,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17961,7 +17880,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17973,7 +17892,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17981,7 +17900,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18077,7 +17996,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18120,7 +18039,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18447,7 +18366,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18463,7 +18382,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18479,7 +18398,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18495,7 +18414,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18511,7 +18430,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18526,9 +18445,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18536,7 +18453,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18547,7 +18464,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18556,7 +18473,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18568,7 +18485,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18576,7 +18493,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18672,7 +18589,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18715,7 +18632,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19042,7 +18959,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19058,7 +18975,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19074,7 +18991,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19090,7 +19007,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19106,7 +19023,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19121,9 +19038,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19131,7 +19046,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19142,7 +19057,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19151,7 +19066,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19163,7 +19078,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19171,7 +19086,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19267,7 +19182,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19310,7 +19225,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19637,7 +19552,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19653,7 +19568,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19669,7 +19584,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19685,7 +19600,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19701,7 +19616,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19716,9 +19631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19726,7 +19639,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19737,7 +19650,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19746,7 +19659,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19758,7 +19671,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19766,7 +19679,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19862,7 +19775,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19905,7 +19818,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20232,7 +20145,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20248,7 +20161,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20264,7 +20177,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20280,7 +20193,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20296,7 +20209,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20311,9 +20224,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20321,7 +20232,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20332,7 +20243,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20341,7 +20252,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20353,7 +20264,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20361,7 +20272,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20457,7 +20368,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20500,7 +20411,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20827,7 +20738,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20843,7 +20754,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20859,7 +20770,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20875,7 +20786,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20891,7 +20802,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20906,9 +20817,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>336</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20916,7 +20825,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20927,7 +20836,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20936,7 +20845,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20948,7 +20857,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20956,7 +20865,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21052,7 +20961,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21095,7 +21004,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21422,7 +21331,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21438,7 +21347,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21454,7 +21363,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21470,7 +21379,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21486,7 +21395,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21501,9 +21410,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21511,7 +21418,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21522,7 +21429,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21531,7 +21438,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21543,7 +21450,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21647,7 +21554,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21690,7 +21597,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22017,7 +21924,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22033,7 +21940,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22049,7 +21956,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22065,7 +21972,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22081,7 +21988,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22096,9 +22003,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>345</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22106,7 +22011,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22117,7 +22022,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22126,7 +22031,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22138,7 +22043,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22146,7 +22051,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22242,7 +22147,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22285,7 +22190,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22612,7 +22517,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22628,7 +22533,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22644,7 +22549,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22660,7 +22565,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22676,7 +22581,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22691,9 +22596,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22701,7 +22604,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22712,7 +22615,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22721,7 +22624,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22733,7 +22636,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22741,7 +22644,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22837,7 +22740,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22880,7 +22783,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23263,7 +23166,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23279,7 +23182,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23295,7 +23198,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23311,7 +23214,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23327,7 +23230,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23342,9 +23245,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>81</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23352,7 +23253,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23363,7 +23264,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23372,7 +23273,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23384,7 +23285,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23392,7 +23293,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23488,7 +23389,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23531,7 +23432,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23858,7 +23759,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23874,7 +23775,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23890,7 +23791,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23906,7 +23807,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23922,7 +23823,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23937,9 +23838,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23947,7 +23846,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23958,7 +23857,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23967,7 +23866,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23979,7 +23878,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24083,7 +23982,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24126,7 +24025,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24453,7 +24352,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24469,7 +24368,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24485,7 +24384,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24501,7 +24400,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24517,7 +24416,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24532,9 +24431,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24542,7 +24439,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24553,7 +24450,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24562,7 +24459,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24574,7 +24471,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24582,7 +24479,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24678,7 +24575,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24721,7 +24618,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25048,7 +24945,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25064,7 +24961,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25080,7 +24977,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25096,7 +24993,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25112,7 +25009,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25127,9 +25024,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25137,7 +25032,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25148,7 +25043,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25157,7 +25052,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25169,7 +25064,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25177,7 +25072,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25273,7 +25168,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25316,7 +25211,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25643,7 +25538,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25659,7 +25554,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25675,7 +25570,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25691,7 +25586,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25707,7 +25602,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25722,9 +25617,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25732,7 +25625,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25743,7 +25636,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25752,7 +25645,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25764,7 +25657,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25772,7 +25665,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25868,7 +25761,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25911,7 +25804,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
